--- a/OrdenarResultados.xlsx
+++ b/OrdenarResultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemon\OneDrive\Documentos\eclipse-workspace\Concurrencia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemon\OneDrive\Documentos\eclipse-workspace\ExperimentoOrdenacionArrays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8999CCEA-72D8-4917-92C4-54EA317259CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD84F8A-97E8-4A0F-A48C-A6FA5439A6F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1465,7 +1465,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2602,7 +2602,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="12700" cap="rnd">
+            <a:ln w="15875" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -3814,7 +3814,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Longitud del array</a:t>
+                  <a:t>Tamaño del array</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4952,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
